--- a/Mulmod/mulmod_time.xlsx
+++ b/Mulmod/mulmod_time.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="0" yWindow="108" windowWidth="8604" windowHeight="5460"/>
   </bookViews>
   <sheets>
-    <sheet name="32bit" sheetId="4" r:id="rId1"/>
-    <sheet name="50bit" sheetId="6" r:id="rId2"/>
-    <sheet name="63bit" sheetId="5" r:id="rId3"/>
-    <sheet name="64bit" sheetId="3" r:id="rId4"/>
+    <sheet name="Intro" sheetId="7" r:id="rId1"/>
+    <sheet name="32bit" sheetId="4" r:id="rId2"/>
+    <sheet name="50bit" sheetId="6" r:id="rId3"/>
+    <sheet name="63bit" sheetId="5" r:id="rId4"/>
+    <sheet name="64bit" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
@@ -1081,7 +1082,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
   <si>
     <t>mul</t>
   </si>
@@ -1115,12 +1116,61 @@
   <si>
     <t>&lt; 0.0001</t>
   </si>
+  <si>
+    <t>Tính thời gian tính toán các số lần lượt là 32bit, 50bit, 63bit và 64bit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cấu hình máy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Intel Core i5 (2.5GHz), RAM 8 GB, Window 64-bit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đơn vị thời gian:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> giây</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,6 +1202,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1234,7 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,6 +1331,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1568,11 +1639,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1743,205 +1880,6 @@
       </c>
       <c r="I6" s="7">
         <v>7.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="7">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.8E-3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1.4E-3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="4">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.11940000000000001</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.23E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.25009999999999999</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.2036</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.24229999999999999</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.0831</v>
-      </c>
-      <c r="G5" s="7">
-        <v>9.4100000000000003E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9.2999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5">
-        <v>10000000</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2.6979000000000002</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.1219000000000001</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2.3693</v>
-      </c>
-      <c r="F6" s="7">
-        <v>11.083</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1.1529</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8.7300000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1970,7 +1908,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,16 +1952,16 @@
         <v>1000</v>
       </c>
       <c r="C2" s="7">
-        <v>2.0000000000000001E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D2" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E2" s="7">
-        <v>1E-4</v>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="7">
-        <v>8.9999999999999998E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>10</v>
@@ -2041,25 +1979,25 @@
         <v>10000</v>
       </c>
       <c r="C3" s="7">
-        <v>4.4000000000000003E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D3" s="7">
-        <v>3.0999999999999999E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="E3" s="7">
-        <v>5.8999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F3" s="7">
-        <v>1.61E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="G3" s="7">
-        <v>3.8E-3</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2.0000000000000001E-4</v>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2068,25 +2006,25 @@
         <v>100000</v>
       </c>
       <c r="C4" s="7">
-        <v>2.64E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>2.7099999999999999E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="E4" s="7">
-        <v>2.76E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="F4" s="7">
-        <v>0.1129</v>
+        <v>0.11940000000000001</v>
       </c>
       <c r="G4" s="7">
-        <v>2.63E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="H4" s="7">
-        <v>3.5999999999999999E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I4" s="7">
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2095,25 +2033,25 @@
         <v>1000000</v>
       </c>
       <c r="C5" s="7">
-        <v>0.33839999999999998</v>
+        <v>0.25009999999999999</v>
       </c>
       <c r="D5" s="7">
-        <v>0.28100000000000003</v>
+        <v>0.2036</v>
       </c>
       <c r="E5" s="7">
-        <v>0.27100000000000002</v>
+        <v>0.24229999999999999</v>
       </c>
       <c r="F5" s="7">
-        <v>1.2430000000000001</v>
+        <v>1.0831</v>
       </c>
       <c r="G5" s="7">
-        <v>0.3422</v>
+        <v>9.4100000000000003E-2</v>
       </c>
       <c r="H5" s="7">
-        <v>3.6600000000000001E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>1.0800000000000001E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2122,25 +2060,25 @@
         <v>10000000</v>
       </c>
       <c r="C6" s="7">
-        <v>3.1494</v>
+        <v>2.6979000000000002</v>
       </c>
       <c r="D6" s="7">
-        <v>2.6581000000000001</v>
+        <v>2.1219000000000001</v>
       </c>
       <c r="E6" s="7">
-        <v>2.8416999999999999</v>
+        <v>2.3693</v>
       </c>
       <c r="F6" s="7">
-        <v>12.6592</v>
+        <v>11.083</v>
       </c>
       <c r="G6" s="7">
-        <v>3.1008</v>
+        <v>1.1529</v>
       </c>
       <c r="H6" s="7">
-        <v>0.42909999999999998</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="I6" s="7">
-        <v>7.3099999999999998E-2</v>
+        <v>8.7300000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2169,6 +2107,205 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.61E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3.8E-3</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.76E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.1129</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2.63E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.3422</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3.1494</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2.6581000000000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.8416999999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <v>12.6592</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3.1008</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
